--- a/lib/xlsx_reader/operacoes_finalizadas_biort.xlsx
+++ b/lib/xlsx_reader/operacoes_finalizadas_biort.xlsx
@@ -1837,8 +1837,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T208"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:T208"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
